--- a/Clubber/Workshop final schedule.xlsx
+++ b/Clubber/Workshop final schedule.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="7485"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="8010" windowHeight="3255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>Page</t>
   </si>
@@ -127,6 +128,9 @@
   </si>
   <si>
     <t>Done</t>
+  </si>
+  <si>
+    <t>Needs redefine</t>
   </si>
 </sst>
 </file>
@@ -282,9 +286,6 @@
   </cellStyleXfs>
   <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -297,6 +298,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -330,8 +336,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -635,8 +639,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -649,270 +653,274 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="8" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="12" t="s">
+      <c r="B2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="19"/>
-      <c r="E3" s="19"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="19"/>
-      <c r="E4" s="19"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="14" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
+      <c r="D5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="7"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="12"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="19"/>
-      <c r="E6" s="19"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="7"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="1" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="19"/>
+      <c r="E7" s="7"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="19"/>
-      <c r="E8" s="19"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="7"/>
+      <c r="E8" s="7"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="B9" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="19"/>
-      <c r="E9" s="19"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="19"/>
-      <c r="E10" s="19"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14" t="s">
+      <c r="B11" s="15"/>
+      <c r="C11" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="19"/>
-      <c r="E11" s="19"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="19"/>
-      <c r="E12" s="19"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="16"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="6" t="s">
+      <c r="B13" s="15"/>
+      <c r="C13" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="19"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="17" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="19"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B15" s="15"/>
-      <c r="C15" s="6" t="s">
+      <c r="B15" s="17"/>
+      <c r="C15" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="7"/>
+      <c r="E15" s="7"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="15"/>
-      <c r="C16" s="7" t="s">
+      <c r="B16" s="17"/>
+      <c r="C16" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="B18" s="8"/>
-      <c r="C18" s="17" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="19"/>
-      <c r="E18" s="19"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B19" s="8"/>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
+      <c r="B19" s="10"/>
+      <c r="C19" s="20"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="8"/>
-      <c r="C20" s="7" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="9" t="s">
+      <c r="B21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="7" t="s">
+      <c r="C21" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D21" s="19"/>
-      <c r="E21" s="19"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="9"/>
-      <c r="C22" s="10" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D22" s="19"/>
-      <c r="E22" s="19"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="19"/>
-      <c r="E23" s="19"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="7"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="9"/>
-      <c r="C24" s="5" t="s">
+      <c r="B24" s="11"/>
+      <c r="C24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="19"/>
-      <c r="E24" s="19"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="12">
